--- a/Planilhas/Planilha de risco.xlsx
+++ b/Planilhas/Planilha de risco.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Projeto\Projeto-Sprint2\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliana\Desktop\bandtec\Projeto sprint 2\Projeto-Sprint2\Planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBF6CAA-3EE8-41E4-8B5B-E301541A6EA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -44,49 +45,49 @@
     <t>Ação</t>
   </si>
   <si>
-    <t>Alto(3)</t>
-  </si>
-  <si>
     <t>Perder um integrante</t>
   </si>
   <si>
     <t>Mitigar</t>
   </si>
   <si>
-    <t>Médio(2)</t>
-  </si>
-  <si>
     <t>Dificuldade na comunicação dos integrantes</t>
   </si>
   <si>
     <t>Evitar</t>
   </si>
   <si>
-    <t>Baixo(1)</t>
-  </si>
-  <si>
     <t>Falha na entrega do projeto</t>
   </si>
   <si>
-    <t>Pouco provável (1)</t>
-  </si>
-  <si>
-    <t>Provável(2)</t>
-  </si>
-  <si>
-    <t>Muito provável(3)</t>
-  </si>
-  <si>
     <t>Falha no sistema</t>
   </si>
   <si>
     <t>Falha no processamento</t>
+  </si>
+  <si>
+    <t>Alto(3)(I)</t>
+  </si>
+  <si>
+    <t>Médio(2)(I)</t>
+  </si>
+  <si>
+    <t>Baixo(1)(I)</t>
+  </si>
+  <si>
+    <t>Pouco provável (1)(P)</t>
+  </si>
+  <si>
+    <t>Provável(2)(P)</t>
+  </si>
+  <si>
+    <t>Muito provável(3)(P)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,7 +148,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -334,11 +335,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -420,6 +436,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,11 +724,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E3:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +737,7 @@
     <col min="5" max="5" width="5" customWidth="1"/>
     <col min="6" max="6" width="50" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="22.85546875" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="12" max="12" width="12.28515625" customWidth="1"/>
@@ -756,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="6">
         <v>2</v>
@@ -768,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K5" s="1"/>
     </row>
@@ -777,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" s="14">
         <v>2</v>
@@ -789,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K6" s="1"/>
     </row>
@@ -798,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G7" s="14">
         <v>1</v>
@@ -810,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K7" s="1"/>
     </row>
@@ -819,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G8" s="14">
         <v>1</v>
@@ -831,7 +856,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -844,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G9" s="25">
         <v>1</v>
@@ -856,7 +881,7 @@
         <v>3</v>
       </c>
       <c r="J9" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -872,21 +897,21 @@
     </row>
     <row r="16" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="31">
+        <v>3</v>
+      </c>
+      <c r="I16" s="30">
         <v>6</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>6</v>
+      <c r="J16" s="29">
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G17" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H17" s="9">
         <v>2</v>
@@ -900,7 +925,7 @@
     </row>
     <row r="18" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G18" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H18" s="18">
         <v>1</v>
@@ -915,13 +940,13 @@
     <row r="19" spans="7:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G19" s="21"/>
       <c r="H19" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I19" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
